--- a/data/04-12-2025-employees.xlsx
+++ b/data/04-12-2025-employees.xlsx
@@ -55,7 +55,7 @@
     <t>Updated At</t>
   </si>
   <si>
-    <t>f73eb84c-6c28-42b9-82da-30d50f575be3</t>
+    <t>4546ff66-39f9-49fe-a286-9d1470703057</t>
   </si>
   <si>
     <t>GOURAB RAKSHIT</t>
@@ -73,7 +73,7 @@
     <t>true</t>
   </si>
   <si>
-    <t>ba54f3d7-758a-491b-b60b-6fb3e073f71a</t>
+    <t>14cd0bee-2ee3-4fdb-92a3-6625b7fd6112</t>
   </si>
   <si>
     <t>SAIKAT MONDAL</t>
@@ -88,7 +88,7 @@
     <t>59b2783a-d85c-4dee-90db-b777e4d4f501</t>
   </si>
   <si>
-    <t>76b36762-729d-483d-8245-8ddce9a828bc</t>
+    <t>aad58edb-e195-4656-8f91-b71d07862537</t>
   </si>
   <si>
     <t>ARINDAM BAIDYA</t>
@@ -100,7 +100,7 @@
     <t>637d0445-bdd5-44bd-8c8c-c26b0a588590</t>
   </si>
   <si>
-    <t>334bd763-8158-4ef9-817d-febde8fefacd</t>
+    <t>12d8cd15-b014-4090-8085-363dc43d4d0a</t>
   </si>
   <si>
     <t>RAGHUNATH BEJ</t>
@@ -112,7 +112,7 @@
     <t>b665b9da-64cc-47f5-83ce-fece32ce7800</t>
   </si>
   <si>
-    <t>94c8b598-3da9-45a0-bd3a-06135c7507bf</t>
+    <t>d9dea426-52aa-4542-a0e8-ec724e1e45a1</t>
   </si>
   <si>
     <t>SUBRATA GOLUI</t>
@@ -124,7 +124,7 @@
     <t>a1b46592-5ca5-4a58-aa1b-369eb2c0f8bd</t>
   </si>
   <si>
-    <t>c0607569-fa39-4a17-a6bd-35bac6947df0</t>
+    <t>05c152c5-9001-491b-9afe-c1a6e1819e7c</t>
   </si>
   <si>
     <t>UTTAM KUMAR PAL</t>
@@ -136,7 +136,7 @@
     <t>f42af8e6-86a3-4302-822c-e5f70107ded6</t>
   </si>
   <si>
-    <t>8684c629-4bc1-4b87-a0c7-b1429a0ecde4</t>
+    <t>4a8bc50f-9942-4942-ab89-305daf7a064d</t>
   </si>
   <si>
     <t>SURYYA KUMAR PAUL</t>
@@ -148,7 +148,7 @@
     <t>52a39e39-2a2c-418c-9846-0edc25b7f982</t>
   </si>
   <si>
-    <t>87742bec-8f11-49ff-8e4d-0454e02bc12e</t>
+    <t>604fa03f-b37e-499e-8c6c-df2b7bf97f2d</t>
   </si>
   <si>
     <t>KUSH KUMAR PANDEY</t>
@@ -160,7 +160,7 @@
     <t>949ac029-b047-4165-8e4e-4adf589700c5</t>
   </si>
   <si>
-    <t>b8fa4721-56bc-41d7-8577-1e4cf7d6e246</t>
+    <t>51d24462-0c77-4c45-803e-699d1ab0185b</t>
   </si>
   <si>
     <t>MOHAMMAD RAJAUL</t>
@@ -178,7 +178,7 @@
     <t>4bc2a086-b131-47e1-9c20-f10650c0196d</t>
   </si>
   <si>
-    <t>7a2d90b0-fd54-439b-997c-ce93869d35d1</t>
+    <t>6f3745d7-9375-4f02-a8dd-9edb85de31e0</t>
   </si>
   <si>
     <t>SANKAR KUMAR SANYAL</t>
@@ -193,7 +193,7 @@
     <t>d8d5f6cf-bb59-4a60-b411-eb2bdc1382cc</t>
   </si>
   <si>
-    <t>62fc9e9e-c447-4c33-b186-7f4233d9f337</t>
+    <t>f233994c-fd37-469e-9ca8-5bd6c1fba056</t>
   </si>
   <si>
     <t>TRIDIB DAS</t>
@@ -208,7 +208,7 @@
     <t>280c1d8d-9be5-4187-9a86-f49a652b989e</t>
   </si>
   <si>
-    <t>86ed6e88-27c0-4f1f-b36b-b286673778e6</t>
+    <t>3f114e73-7b4c-4fc9-b840-4528c35acf74</t>
   </si>
   <si>
     <t>PRAKRITY KALYAN SARKAR</t>
@@ -226,7 +226,7 @@
     <t>93e3e63b-4426-4839-8d45-945a2f36dbfe</t>
   </si>
   <si>
-    <t>11585c55-a500-4480-aa46-cfcb269c5012</t>
+    <t>019b79d9-227c-4437-be26-2c99322f68ea</t>
   </si>
   <si>
     <t>MANISH GUPTA</t>
@@ -238,7 +238,7 @@
     <t>553e4957-fef7-4793-b558-4894a7be9b3e</t>
   </si>
   <si>
-    <t>06299b63-c8b0-4052-b9b4-384a900266b5</t>
+    <t>1ed25bab-eb33-4ca1-9e73-725cb8076c5f</t>
   </si>
   <si>
     <t>BIKASH RABIDAS</t>
@@ -253,7 +253,7 @@
     <t>28a60315-706e-4cc8-ac10-1d4c13c457c9</t>
   </si>
   <si>
-    <t>b9d4d074-e3d0-46df-bc28-e29bd3603f4c</t>
+    <t>c5b2ee49-e1a5-484a-95b0-202df16be01e</t>
   </si>
   <si>
     <t>BIKASH MALGOPE</t>
@@ -265,7 +265,7 @@
     <t>747b93d6-fac2-4aeb-b476-eace2882b8cb</t>
   </si>
   <si>
-    <t>0a766ca1-e83f-4ef6-a57e-add601caa778</t>
+    <t>c7afb7c5-052b-492d-8038-9a140b4b4113</t>
   </si>
   <si>
     <t>DIPANKAR BISWAS</t>
@@ -277,7 +277,7 @@
     <t>fab97d40-2c31-4dea-99e6-93dfc6d69d08</t>
   </si>
   <si>
-    <t>f037171c-b706-438c-92d8-1a1050ad6e53</t>
+    <t>ba4d3bb1-1479-4d46-a706-327b8f96fe1c</t>
   </si>
   <si>
     <t>RAVIKANT KUMAR</t>
@@ -292,7 +292,7 @@
     <t>59ba9da3-38ef-4333-8cd7-1bbd52731309</t>
   </si>
   <si>
-    <t>b250d9f7-4266-46c7-92a5-69fc0cb77255</t>
+    <t>3ecdacb4-1cec-41a5-b909-91742987afcc</t>
   </si>
   <si>
     <t>MALAY KUMAR GHOSH</t>
@@ -309,7 +309,7 @@
     <t>fca10c56-72dc-444d-b7a6-e3795ca1247e</t>
   </si>
   <si>
-    <t>a719601d-8554-4c2f-b727-11e2a9baa360</t>
+    <t>ebd998c8-6112-4b71-b9d1-318641f3f428</t>
   </si>
   <si>
     <t>SAUMYA KANTI SARKAR</t>
@@ -321,7 +321,7 @@
     <t>1dc3f3cd-c96e-481e-a33b-d0011011ae10</t>
   </si>
   <si>
-    <t>7abc61c4-1e8b-4540-89a4-e711e701b723</t>
+    <t>62b7ffbd-f9ea-4938-b3a9-b0c6726aab21</t>
   </si>
   <si>
     <t>JOYDEEP BOSE</t>
@@ -336,7 +336,7 @@
     <t>186457f6-bbd0-4f12-b286-2c0bebf60b0d</t>
   </si>
   <si>
-    <t>9d0b9a57-85ca-49c0-9951-eb92ff78591d</t>
+    <t>bcc1fd37-5748-42f1-80da-708ee095f804</t>
   </si>
   <si>
     <t>PRASUN ROY CHOWDHURI</t>
@@ -348,7 +348,7 @@
     <t>fc4f4d88-1318-426f-8a2d-831c3b48f3f1</t>
   </si>
   <si>
-    <t>3497fd12-09e5-4dcd-b3c4-8bc0700a1477</t>
+    <t>f0cff70d-6a99-4d2a-a165-7e1546407e57</t>
   </si>
   <si>
     <t>JOGESH CHANDRA ROY</t>
@@ -366,7 +366,7 @@
     <t>40334e34-03d9-4f12-b83d-3c3b99dc3b3c</t>
   </si>
   <si>
-    <t>1a46bd83-3494-41fd-8116-3120d9bdbef0</t>
+    <t>17202ede-e641-4372-b08b-8f0bd2a30b5a</t>
   </si>
   <si>
     <t>SANJIT SEKHAR MANDAL</t>
@@ -378,7 +378,7 @@
     <t>e155efba-40d6-4c04-b233-75c8839cc079</t>
   </si>
   <si>
-    <t>13bdd492-749a-4103-ac62-b9e20ac969ac</t>
+    <t>0a90da19-0f8b-4d35-be60-eb39abab8565</t>
   </si>
   <si>
     <t>DEBDAYAL MAHATO</t>
@@ -390,7 +390,7 @@
     <t>9477f949-9218-4cd9-8e00-25e887736460</t>
   </si>
   <si>
-    <t>b804e785-4665-47e2-a6ad-e7297641f381</t>
+    <t>901ffd53-66dd-4408-99ae-d456751a7875</t>
   </si>
   <si>
     <t>BIJAY KUMAR MONDAL</t>
@@ -402,7 +402,7 @@
     <t>2dca3bcf-5cbc-4ce3-a97d-f71b993e4d49</t>
   </si>
   <si>
-    <t>5f002f7b-54b5-4c49-a6f1-10d8a619161d</t>
+    <t>31508d54-3f0c-439f-9af8-a44d1e2dd9fe</t>
   </si>
   <si>
     <t>JOYDEEP SINHA</t>
@@ -414,7 +414,7 @@
     <t>987d138a-f967-4a7c-9c92-bb1f9972db4e</t>
   </si>
   <si>
-    <t>eb28a336-cd43-4d08-be5a-332698612c27</t>
+    <t>43e31e54-ce06-4709-8cbf-c8f1751daf2c</t>
   </si>
   <si>
     <t>MANAS KUMAR GHOSH</t>
@@ -426,7 +426,7 @@
     <t>99d4b224-9d2d-4b7f-aa11-bd539b9f6be9</t>
   </si>
   <si>
-    <t>480aafec-1f1e-4e9e-bd54-0f594c3666ba</t>
+    <t>2dbb62fe-9ce1-4e47-af98-b68bab94a6a4</t>
   </si>
   <si>
     <t>ASHOK GHOSH</t>
@@ -441,7 +441,7 @@
     <t>e5cb2f0f-16a8-487a-9f51-6617c07d2458</t>
   </si>
   <si>
-    <t>9c389007-b646-4338-a685-8864c0eb78d8</t>
+    <t>fc59e9c0-bed3-4e83-b556-66b5c9854166</t>
   </si>
   <si>
     <t>TARAK MAJUMDAR</t>
@@ -453,7 +453,7 @@
     <t>60/6/1 Rahuta Road Ramkrishna pally,PS-Jagaddal,24Pgs(N),PIN-743127</t>
   </si>
   <si>
-    <t>59f71e2f-1350-40b3-87eb-0962d7567e3c</t>
+    <t>08d84378-0556-4f38-92b6-ae9b257ffcd8</t>
   </si>
   <si>
     <t>SOURAV BHATTACHARYYA</t>
@@ -465,7 +465,7 @@
     <t>320dd9c8-9cf5-4fab-9f4d-1d36e92315a8</t>
   </si>
   <si>
-    <t>423aca46-6021-4935-bd09-793b830f7822</t>
+    <t>7993defe-8fae-436d-a7ef-58a50f001aa0</t>
   </si>
   <si>
     <t>RAJU BISWAS</t>
@@ -477,7 +477,7 @@
     <t>f95f438e-3300-4707-bbbf-7e2b7f7a3e8f</t>
   </si>
   <si>
-    <t>f41b900f-9ee6-43a9-854f-5d49e93bcd09</t>
+    <t>af88bcb5-2524-4ad1-bb46-e03ba234a8f2</t>
   </si>
   <si>
     <t>AMIT KUMAR TAGORE</t>
@@ -489,7 +489,7 @@
     <t>74e3a3df-fbed-4278-ad43-935b2ac2baae</t>
   </si>
   <si>
-    <t>ec7b9832-c9f2-429a-bb8b-f6f6cc1c70a4</t>
+    <t>27a9ac47-2150-416c-ac4f-cd8aabd08e9a</t>
   </si>
   <si>
     <t>AKASH AGRAWAL</t>
@@ -498,7 +498,7 @@
     <t>F-1b, Muktaneer cooperative, Street no 594, action area 2b, Newtown, Kol-162</t>
   </si>
   <si>
-    <t>f4b432c0-535c-4f17-83c0-bb0bad49b140</t>
+    <t>43300ff4-ad46-457c-a663-2d6fec63a61d</t>
   </si>
   <si>
     <t>DEBASISH NATH</t>
@@ -507,7 +507,7 @@
     <t xml:space="preserve"> 2 NO.DEBIGARH , 3RD LANE , MONOSHA LANE, MADHAYMGRAM, KOLKATA-700129</t>
   </si>
   <si>
-    <t>b83b913f-cbe6-4abf-b850-842df6d27b4c</t>
+    <t>f47ec133-8e73-4a5b-977b-c0330f3d385d</t>
   </si>
   <si>
     <t>DEBMOY BHATTACHARYA</t>
@@ -522,7 +522,7 @@
     <t>dc0503ab-0966-45ad-a52b-5c120299be3f</t>
   </si>
   <si>
-    <t>81f15446-3172-4270-8b3d-a5c1c5239dc4</t>
+    <t>81774a6c-856f-486d-8bd0-c2e349e9c217</t>
   </si>
   <si>
     <t>ARNAB KUMAR MONDAL</t>
@@ -537,7 +537,7 @@
     <t>88a61178-6569-4796-b5c8-d3bc0cb7ca59</t>
   </si>
   <si>
-    <t>a09f59bf-e5d4-4003-a096-0c23697f3ca3</t>
+    <t>3b130f43-08de-43e9-9bd6-c914591217d8</t>
   </si>
   <si>
     <t>SOURAV CHAKRABARTI</t>
@@ -552,7 +552,7 @@
     <t>ab2032cb-0c24-4475-b502-c600febe3179</t>
   </si>
   <si>
-    <t>5f31fd59-dc8d-48f8-8115-dabac3616fc7</t>
+    <t>1bf84685-5fa9-4815-80d5-7f795b239856</t>
   </si>
   <si>
     <t>DEBABRATA HALDAR</t>
@@ -561,7 +561,7 @@
     <t>fcbfbfd0-b637-4209-8b84-0c79a886edc1</t>
   </si>
   <si>
-    <t>aded54e5-2a76-4310-b453-107803e5d405</t>
+    <t>49a22ff7-e3ec-47d5-9c78-c7e87801f08a</t>
   </si>
   <si>
     <t>SAUMYA RANJAN KAR</t>
@@ -573,7 +573,7 @@
     <t>71121a19-fc47-4303-a1a8-9f7b54f5d2e8</t>
   </si>
   <si>
-    <t>aa1c46ee-e4cb-432f-88de-90a8c4c975bf</t>
+    <t>f8d40fc5-2cb8-4a4b-9b82-b938aefae658</t>
   </si>
   <si>
     <t>NARENDRA SINGH</t>
@@ -585,7 +585,7 @@
     <t>78380c7c-4474-49e9-810b-c49d77c28fbd</t>
   </si>
   <si>
-    <t>14519041-79bc-4a10-92f9-6799d2c51a29</t>
+    <t>ce05dcdb-ee87-4e00-8b80-fecca7fa3458</t>
   </si>
   <si>
     <t>SUPRATIK SETT</t>
@@ -594,7 +594,7 @@
     <t>8902001287</t>
   </si>
   <si>
-    <t>af5300ec-ca0c-4aa9-9a6a-960806214f4a</t>
+    <t>abf06ca5-a1d3-4222-9cc0-41d604875ce9</t>
   </si>
   <si>
     <t>MRINAL KANTI MONDAL</t>
@@ -609,7 +609,7 @@
     <t>66f6f105-5845-490b-9094-04101a217e49</t>
   </si>
   <si>
-    <t>d312cb33-7abc-4415-875f-7a7ff2b2bb1c</t>
+    <t>2b7963a1-7bc3-4f0c-99d1-be7a835981e2</t>
   </si>
   <si>
     <t>MANOJ KUMAR GAUTAM</t>
@@ -624,7 +624,7 @@
     <t>b783c8a5-2836-4dda-9f12-9f78e296c6a9</t>
   </si>
   <si>
-    <t>1bab2889-34bb-48f0-8957-429a80d16885</t>
+    <t>494af64c-f7ce-44d0-aa35-e80f8ec844c6</t>
   </si>
   <si>
     <t>BONIFACE HEMBROM</t>
@@ -633,7 +633,7 @@
     <t>19/22 K.B SARANI MALL ROAD DUMDUM KOLKATA 700080</t>
   </si>
   <si>
-    <t>4517add5-4591-4e91-b041-7d063fcedcb4</t>
+    <t>d0480ba9-ed03-4f02-8745-cd688d2fbcdb</t>
   </si>
   <si>
     <t>RAJ KUMAR DUTTA</t>
@@ -648,7 +648,7 @@
     <t>d4b70c8d-7c7c-4a5c-99d8-2be12a15bba9</t>
   </si>
   <si>
-    <t>60221420-4de8-4780-9ac0-629379a677b1</t>
+    <t>86b626fd-1a66-4912-b921-edbe995e946c</t>
   </si>
   <si>
     <t>DATLA VIJAY KUMAR</t>
@@ -660,7 +660,7 @@
     <t>e706b7e1-5996-4e07-953e-e949024c9067</t>
   </si>
   <si>
-    <t>bed34e25-e711-4bf9-80b6-def19659fd1f</t>
+    <t>cbb2413e-afb6-4ada-a54d-5c26029377e1</t>
   </si>
   <si>
     <t>BISWAJIT SAHA</t>
@@ -672,7 +672,7 @@
     <t>733e7704-2983-45c7-8420-4b1d56193218</t>
   </si>
   <si>
-    <t>6717ec37-89fe-44e9-b027-65b5e6d586c6</t>
+    <t>173ae181-195c-4181-98d5-43a87919ea6f</t>
   </si>
   <si>
     <t>PRASANTA DUTTA</t>
@@ -681,7 +681,7 @@
     <t>777 Sarat Chatterjee Rd, Chatterjeehat How-711104</t>
   </si>
   <si>
-    <t>a18386ef-d91d-4dd8-b7ca-e8e59a80c30e</t>
+    <t>903ec2dd-0f0b-487f-b834-f7a1b5770d9a</t>
   </si>
   <si>
     <t>AMIT SARKAR</t>
@@ -696,7 +696,7 @@
     <t>b90dc7a3-45b2-440b-a69d-4283aae3ba41</t>
   </si>
   <si>
-    <t>06c09716-cd0f-4975-af17-6724b469c1ae</t>
+    <t>18bc23ff-2d2c-4f2b-9ed9-368c9f12a0d6</t>
   </si>
   <si>
     <t>SUSANTA MANDAL</t>
@@ -708,7 +708,7 @@
     <t>5dd3cb53-6e7e-4cd4-af7d-49ded556fb87</t>
   </si>
   <si>
-    <t>0a76cca2-92c3-4879-8709-952d4299e85f</t>
+    <t>24cbfa39-3b85-4543-bdf7-2059fc3d6efc</t>
   </si>
   <si>
     <t>KALYAN SHARMA</t>
@@ -723,7 +723,7 @@
     <t>e509ee25-956f-436c-8fe2-0c2fe658970f</t>
   </si>
   <si>
-    <t>15fec852-134b-4c9d-99ed-25cbc8cc8acd</t>
+    <t>e29e7037-2d05-43c5-99ba-5273d22e5b1b</t>
   </si>
   <si>
     <t>PROLOY PAL</t>
@@ -735,7 +735,7 @@
     <t>5A, J C BOSE ROAD, PALLISREE, SODEPUR, 24 PGS(NORTH),KOLKATA700110</t>
   </si>
   <si>
-    <t>e7187477-068c-4313-beb6-7b77718e26c8</t>
+    <t>48d37f5a-d061-45d0-bce6-e7877e8954af</t>
   </si>
   <si>
     <t>RAM KRISHNA PAUL</t>
@@ -747,7 +747,7 @@
     <t>7096a568-944d-4373-9c85-10b4b7fe1bd2</t>
   </si>
   <si>
-    <t>f9d42f74-7f2f-410a-8e98-f8736aa33e11</t>
+    <t>490b888a-8f77-4872-954f-441564cc151c</t>
   </si>
   <si>
     <t>SAROJ KUMAR KOIRY</t>
@@ -759,7 +759,7 @@
     <t>7f4b8726-c86d-47f5-9e94-21040243debb</t>
   </si>
   <si>
-    <t>41db4f9a-beda-452b-9ae4-45d150038f44</t>
+    <t>97783cd0-e9c9-476b-a67f-2bc77aeb132c</t>
   </si>
   <si>
     <t>JAGADISH KAYAL</t>
@@ -771,7 +771,7 @@
     <t>700b2a45-8422-4bd9-9c31-27c0fbbd01db</t>
   </si>
   <si>
-    <t>f9d608e9-cb4e-47df-9e02-24240b426d78</t>
+    <t>c5aacdae-3ba6-4b16-8b3a-11567dfd4b03</t>
   </si>
   <si>
     <t>SUBHAS MONDAL</t>
@@ -783,7 +783,7 @@
     <t>60e5abdf-7248-4bbf-bc99-6b41c58408a7</t>
   </si>
   <si>
-    <t>0b05ad71-8120-459b-8d94-290f7e6e7047</t>
+    <t>3ea2e14e-b8f1-4d95-a675-836135944d94</t>
   </si>
   <si>
     <t>SHASHIKANT KUMAR</t>
@@ -798,7 +798,7 @@
     <t>0a053f39-3f27-451d-9fa9-ae9fba5c8657</t>
   </si>
   <si>
-    <t>a96717d9-92ed-4d6b-94d8-cf02446a1065</t>
+    <t>5e93d317-93b9-4cbc-bca4-b62bbb18d090</t>
   </si>
   <si>
     <t>NILKANTHA SUIN</t>
@@ -807,7 +807,7 @@
     <t>c374e2f7-1f40-407e-be7f-e26e6bff1195</t>
   </si>
   <si>
-    <t>7b31782d-2b75-49e9-935b-a5add6676bcc</t>
+    <t>f0461075-0c94-4e90-918d-e131fcb29043</t>
   </si>
   <si>
     <t>SUDIPTA DAS</t>
@@ -816,7 +816,7 @@
     <t>f8c3ae99-a13a-4593-a249-0d9e6efd5268</t>
   </si>
   <si>
-    <t>eec444d9-d731-473a-8d28-6eb4b3556f12</t>
+    <t>5d5d7c9c-7c78-4f9f-a772-814c1843079a</t>
   </si>
   <si>
     <t>MANAS CHAKRABORTY</t>
@@ -831,7 +831,7 @@
     <t>9600df11-583c-4ff5-8a6e-021c973247e1</t>
   </si>
   <si>
-    <t>e9222fcd-22c8-40ce-afb8-b35f3e1b829c</t>
+    <t>231e2876-a7a6-4295-8182-3b52d26d4c9b</t>
   </si>
   <si>
     <t>AMITAVA MALLICK</t>
@@ -843,7 +843,7 @@
     <t>62105f07-08a0-46a8-bb3b-5505e0b214c7</t>
   </si>
   <si>
-    <t>caee08c0-7026-4384-b7b1-d2b889974165</t>
+    <t>95391bc1-ca6c-458e-95bb-087f77d72043</t>
   </si>
   <si>
     <t>SYED PARVEZ ATIQ</t>
@@ -855,7 +855,7 @@
     <t>c559b736-c8d4-4526-9a3a-61c6d7116a13</t>
   </si>
   <si>
-    <t>037ffd0e-c9bc-4e72-9fb9-770e3035ae1b</t>
+    <t>999e6c2d-09f5-4ae4-ab04-a8e87e71951a</t>
   </si>
   <si>
     <t>MANSINGH DEOGAM</t>
@@ -867,7 +867,7 @@
     <t>8a58cea8-d2a4-4b85-8e48-068ae144dacb</t>
   </si>
   <si>
-    <t>6cbf0867-fb9e-479d-8b7a-ae2a7d637941</t>
+    <t>9e8484b3-baf1-4540-9ff9-1b8fda87396d</t>
   </si>
   <si>
     <t>BINAY BISWAS</t>
@@ -879,7 +879,7 @@
     <t>28d721a7-7298-4c83-9a6a-692abcbb1557</t>
   </si>
   <si>
-    <t>36364c5f-969a-432b-901f-d0a04c76f334</t>
+    <t>9d8fa903-fa1d-46a4-87c3-daf507eb3d88</t>
   </si>
   <si>
     <t>ABHIJIT SAHA</t>
@@ -891,7 +891,7 @@
     <t>42967955-f00b-4133-9984-e7a7bc96f3a3</t>
   </si>
   <si>
-    <t>99097a7c-c449-4008-a64b-51bda773f8d5</t>
+    <t>fb01c8c3-b559-437a-899d-72fca08788c6</t>
   </si>
   <si>
     <t>SAIKAT SIL</t>
@@ -903,7 +903,7 @@
     <t>7038e0a5-7fde-4ac0-abc7-5599ef906b22</t>
   </si>
   <si>
-    <t>080e520c-1ec9-4f1c-95f4-e65136bb5542</t>
+    <t>eec601a9-4712-4ac4-afcd-061e2c01023c</t>
   </si>
   <si>
     <t>PALASH NANDI</t>
@@ -915,7 +915,7 @@
     <t>ffec4ed1-f2fa-46f0-b7b4-d7727f869f0d</t>
   </si>
   <si>
-    <t>73c08342-ee57-40cd-8fd0-8d336099a8f2</t>
+    <t>64b35077-4b9a-475b-9dbe-731a7746ea91</t>
   </si>
   <si>
     <t>SOUMYA BASAK</t>
@@ -927,7 +927,7 @@
     <t>65c6bfbb-bb0e-48eb-8196-3caee681f86c</t>
   </si>
   <si>
-    <t>cc6a160b-0529-4e47-adea-b5fd8913efa3</t>
+    <t>25df0881-c647-4f2c-9b24-3266730d7fca</t>
   </si>
   <si>
     <t>RAJAT KANTI NATH</t>
@@ -936,7 +936,7 @@
     <t>Ram Bhawan Apartment, 19/16 K.B. Sarani, Mall Road, Kolkata-700080.</t>
   </si>
   <si>
-    <t>47a4280d-f0ba-4ff0-8a39-90c87619b6c5</t>
+    <t>b2703a46-36fb-4029-84da-171ad14af29a</t>
   </si>
   <si>
     <t>SHEKHAR ROY CHOWDHURY</t>
@@ -945,7 +945,7 @@
     <t>671, S.H.K.B. SARANI, SOUTH DUMDUM(M),KOLKATA-700074</t>
   </si>
   <si>
-    <t>e94734a0-3995-4130-9f0f-0c3b9b5c9aeb</t>
+    <t>78318858-4e9c-437d-b6b8-39e19d1e476c</t>
   </si>
   <si>
     <t>SOURAV DATTA</t>
@@ -957,7 +957,7 @@
     <t>22e4a9cd-5d88-4a61-a1b8-186b3b395e53</t>
   </si>
   <si>
-    <t>0163dcf3-e680-4a17-9c95-30cd4f782293</t>
+    <t>92d32c7b-4c68-441e-88dc-078e39f0b3c1</t>
   </si>
   <si>
     <t>MOHAMMAD MEHDI IMAM</t>
@@ -966,7 +966,7 @@
     <t>9432379801</t>
   </si>
   <si>
-    <t>256bcdd1-879a-4566-901b-c3ad988f1f2b</t>
+    <t>d2c3c4bb-ec6d-4b76-83d4-fdec90f41f7a</t>
   </si>
   <si>
     <t>ARIJIT DEY</t>
@@ -978,7 +978,7 @@
     <t>10/35, NETAJI NAGAR, KOLKATA - 700040</t>
   </si>
   <si>
-    <t>00fdff4e-31d2-4313-b80f-a70f8320af3f</t>
+    <t>ff83abad-0061-4ca7-8a27-c1c11e2ede8b</t>
   </si>
   <si>
     <t>SUSHOVAN DUTTA</t>
@@ -987,7 +987,7 @@
     <t>f9c629d8-dcf7-4499-bdf6-b39dc3d64fb9</t>
   </si>
   <si>
-    <t>714cb47f-9ba6-4b28-8bab-58c73254c044</t>
+    <t>8f7e3df7-63e2-4125-a43d-a89cab419614</t>
   </si>
   <si>
     <t>SUBHASIS NASKAR</t>
@@ -1005,7 +1005,7 @@
     <t>924e6439-e0fd-41f3-a1a3-63505eedf442</t>
   </si>
   <si>
-    <t>f0111112-9874-45b2-ae5f-2ec66908284e</t>
+    <t>d043c561-e0a7-4a94-8544-7f17f5e782fa</t>
   </si>
   <si>
     <t>JAYANTA KUMAR DAS</t>
@@ -1021,7 +1021,7 @@
     <t>9433ddc7-4102-49f7-81b8-614e9a77685f</t>
   </si>
   <si>
-    <t>e47b8705-a585-472f-9826-b6cb055f3c6b</t>
+    <t>04a924bd-dc86-4153-b90a-27bdb66d8816</t>
   </si>
   <si>
     <t>DHRUBA GHOSH BAIRAGYA</t>
@@ -1036,7 +1036,7 @@
     <t>2385c5ff-ff7b-4984-a56a-300e4bea8425</t>
   </si>
   <si>
-    <t>be18618a-2c28-4735-87c1-53e3bbb3c72a</t>
+    <t>a7bd057b-08f6-4f92-8018-8e801271a892</t>
   </si>
   <si>
     <t>GOUTAM KUMAR KARMAKAR</t>
@@ -1045,7 +1045,7 @@
     <t>db24d376-9d46-44ec-973d-3809db464ceb</t>
   </si>
   <si>
-    <t>57232b99-64d4-47db-9c09-256426a575f9</t>
+    <t>7deb0751-8b65-47e1-ad58-02f126366734</t>
   </si>
   <si>
     <t>TAHIR IQUBAL NEZAMI</t>
@@ -1057,7 +1057,7 @@
     <t>95d7c735-f126-4203-a424-237182436927</t>
   </si>
   <si>
-    <t>d37cc5e4-0d68-4fe2-a4cb-4daf66467776</t>
+    <t>6b9bcd31-aa40-4e5b-b80e-a80c7a547228</t>
   </si>
   <si>
     <t>SURAJIT BISWAS</t>
@@ -1069,7 +1069,7 @@
     <t>4a637295-d165-4031-832a-15ac22023e67</t>
   </si>
   <si>
-    <t>588f6012-04e8-414f-954a-642e234061b3</t>
+    <t>19d8eb5a-61ca-4a5e-91fc-1cde45e8d692</t>
   </si>
   <si>
     <t>ACHINTYA BISWAS</t>
@@ -1081,7 +1081,7 @@
     <t>cfc3f4bb-7201-491a-afcb-04b73e4879f4</t>
   </si>
   <si>
-    <t>6e2bbe23-601c-437c-a846-a3cebf3c1749</t>
+    <t>a65f5634-ff0f-4202-bfb8-d0970b48351a</t>
   </si>
   <si>
     <t>KUMARA SWAMY PERAPU</t>
@@ -1099,7 +1099,7 @@
 KOLKATA-700070</t>
   </si>
   <si>
-    <t>35acc34f-dac4-4e48-8658-260da82033a8</t>
+    <t>59ef5521-8713-49ba-bd28-0bb7441debc3</t>
   </si>
   <si>
     <t>BHUPENDRA KUMAR</t>
@@ -1111,13 +1111,13 @@
     <t>87886f29-f54f-4a16-86dd-25063c20de5b</t>
   </si>
   <si>
-    <t>16933e51-961f-47d1-a860-25d1eace7f2c</t>
+    <t>7ec27919-282e-45e8-a87b-9532fc6887a5</t>
   </si>
   <si>
     <t>SRIBAS MONDAL</t>
   </si>
   <si>
-    <t>26024750-25c2-4d62-a1e5-6c6a344ba985</t>
+    <t>ac083ba6-31b6-46d2-a0fc-b1054dddf822</t>
   </si>
   <si>
     <t>SUBHASIS ATORTHY</t>
@@ -1132,7 +1132,7 @@
     <t>7138be3a-890e-41ae-a480-34583d7ffeae</t>
   </si>
   <si>
-    <t>444ddb1a-23cd-4ec1-bc68-662f99010c29</t>
+    <t>bbf08d62-c72e-4407-9f77-40fae2aec912</t>
   </si>
   <si>
     <t>MANOJIT DEBNATH</t>
@@ -1144,7 +1144,7 @@
     <t>Modello Highs, Flat 1/8D, Narendrapur, Kolkata 700103</t>
   </si>
   <si>
-    <t>61e337d8-cb2c-4bc2-bac8-4ee87adcb8c4</t>
+    <t>120e7032-b08a-4b1e-8f0b-f2fd947fa231</t>
   </si>
   <si>
     <t>BADDRUD ZAMAN LASKAR</t>
@@ -1159,7 +1159,7 @@
     <t>1e8701a7-5f35-4628-bcd1-03c21f7650b7</t>
   </si>
   <si>
-    <t>d88da7ea-196f-4600-b354-9dbfc55b0f94</t>
+    <t>d65adab9-20ab-4cf3-892c-ef3c6ff3ca8d</t>
   </si>
   <si>
     <t>WRITADEEP CHAKRABORTY</t>
@@ -1171,7 +1171,7 @@
     <t>Flat No 2A2, Pacific Point, 550 Boral Main Road, Kolkata 700154</t>
   </si>
   <si>
-    <t>4ea18787-0f85-4955-b24e-d07c88ec5e6c</t>
+    <t>1760073f-287c-4b39-b03b-84ef7758f880</t>
   </si>
   <si>
     <t>MADHUSUDAN BAR</t>
@@ -1183,7 +1183,7 @@
     <t>49836ab0-f0a4-4c9a-bfa4-c65d8f56ff75</t>
   </si>
   <si>
-    <t>4775a803-a983-4bd6-9417-d3600d8f80ac</t>
+    <t>07103778-67b4-4141-826d-94635da9dce8</t>
   </si>
   <si>
     <t>KAUSIK BHOWMIK</t>
@@ -1195,7 +1195,7 @@
     <t>a29552a0-c1f8-413b-8862-a271251ad539</t>
   </si>
   <si>
-    <t>3614a8ba-879b-4a7d-8ba2-7135df673a09</t>
+    <t>eaf84f3d-c3f9-4ed6-8df4-c3ac9a17a93c</t>
   </si>
   <si>
     <t>SURAJIT MONDAL</t>
@@ -1204,7 +1204,7 @@
     <t>Atreyi Appt., Mondal Bagan, Lichutala, Hooghly-712136</t>
   </si>
   <si>
-    <t>7f91fcc8-bdbd-4a11-b1f2-d621888ce67c</t>
+    <t>08c05aad-feee-4720-84dc-25b346bb383d</t>
   </si>
   <si>
     <t>SARNADEEP DATTA</t>
@@ -1213,7 +1213,7 @@
     <t xml:space="preserve">Rabindranagar, Opposite to Happy Health Nursing Home, PO-Midnapore, Dist-Mindapore-West, PIN-721101 </t>
   </si>
   <si>
-    <t>b15d8a9d-f008-4f50-9b98-93f85fb09b0a</t>
+    <t>f61a267d-0885-4974-b19a-38792c0b04ee</t>
   </si>
   <si>
     <t>NILAVA SAHA</t>
@@ -1222,7 +1222,7 @@
     <t>9435598039</t>
   </si>
   <si>
-    <t>392532f4-ff26-4c74-8272-5f638f0312bd</t>
+    <t>0fb671d1-9a7e-40fa-b8d5-2b98a02b9ec4</t>
   </si>
   <si>
     <t>CHAND KUMAR DAS</t>
@@ -1231,7 +1231,7 @@
     <t>Basina,Charabagan,Bishnupur 2No.GP Rajarhat 24PGS North.</t>
   </si>
   <si>
-    <t>9f588861-bbd7-426c-9f5b-7d4f7f0f323e</t>
+    <t>fcb6c2c9-0ac8-441d-a2b1-adcb6f7783a4</t>
   </si>
   <si>
     <t>Aditya Narayan Mahato</t>
@@ -1240,7 +1240,7 @@
     <t>77ebc582-957d-47dd-8886-7fe3484ae497</t>
   </si>
   <si>
-    <t>7c6bac87-f389-4d2c-a369-2d872b4281fc</t>
+    <t>3486d498-a6ef-431e-a2e6-4d87b03f1767</t>
   </si>
   <si>
     <t>JOYDEV PAL</t>
@@ -1255,7 +1255,7 @@
     <t>58d20fd2-5b0f-41da-a06c-5be798ea902d</t>
   </si>
   <si>
-    <t>16790183-d137-4949-90e8-b8a0a85e1dda</t>
+    <t>715c0308-26a5-4492-a5ed-ef44e6781d9c</t>
   </si>
   <si>
     <t>PROSUN GHOSH</t>
@@ -1267,7 +1267,7 @@
     <t>2ac62d81-e51d-49ef-a991-b7ab2c2f0ecb</t>
   </si>
   <si>
-    <t>969e7abd-60ce-474d-8188-1a867790d0ce</t>
+    <t>156126cc-ad4e-427c-af03-cb37c46c6aef</t>
   </si>
   <si>
     <t>Sk Synul Islam</t>
@@ -1282,7 +1282,7 @@
     <t>94549f92-a11a-49b0-9b05-fb1d2c1ef683</t>
   </si>
   <si>
-    <t>933e5617-e31a-4bbb-a3f7-e5e9b4e2ec89</t>
+    <t>9e9ce835-4db9-4e01-9577-97a39f7617f8</t>
   </si>
   <si>
     <t>PARTHO GHOSAL</t>
@@ -1297,7 +1297,7 @@
     <t>0475b510-bc49-4e8d-88d2-4bb4ec5d3212</t>
   </si>
   <si>
-    <t>f6561ac1-3b3d-457c-99d4-cd07e96cc9cd</t>
+    <t>0fce3130-d04c-43ba-89a4-c2933078c901</t>
   </si>
   <si>
     <t>MITHU KUMAR GUPTA</t>
@@ -1312,7 +1312,7 @@
     <t>3fd9f9be-6a82-43c7-8fd1-042826caf0d2</t>
   </si>
   <si>
-    <t>c9088866-a155-4973-af67-eeedb87a6117</t>
+    <t>bdeac30d-d33c-4b92-91fa-0a140902700b</t>
   </si>
   <si>
     <t>RAJAN PRASAD</t>
@@ -1327,7 +1327,7 @@
     <t>b0eb1925-86c9-47f8-a988-12624f634833</t>
   </si>
   <si>
-    <t>e58585a1-b90a-479d-9f7a-57e4a482e0b1</t>
+    <t>06481998-50a6-4afe-89b5-82b912005872</t>
   </si>
   <si>
     <t>DIGESH RANJAN MAHARANA</t>
@@ -1342,7 +1342,7 @@
     <t>40170256-c17c-4142-b7bc-4ab99f5994d5</t>
   </si>
   <si>
-    <t>8d5c3096-8304-42c3-8df1-43bfdce28aef</t>
+    <t>cc754626-302f-4e5c-ad7d-5ec2d4fcd9c5</t>
   </si>
   <si>
     <t>BIKASH CHANDRA</t>
@@ -1357,7 +1357,7 @@
     <t>0fb86390-bb94-4850-9180-b809bc01d2fb</t>
   </si>
   <si>
-    <t>2cb8cc2b-a7b9-4541-bcbc-88da2d66b4a0</t>
+    <t>eb1a2ea5-a4bb-43d6-aed6-888e4e3bbc95</t>
   </si>
   <si>
     <t>ARDHENDU KHATUA</t>
@@ -1372,7 +1372,7 @@
     <t>638d32b5-58b8-48dc-937c-be2e388ffc0c</t>
   </si>
   <si>
-    <t>59b6636d-ebcb-4996-a285-affc9dd6232e</t>
+    <t>0add00af-d867-4b56-9d4e-f76fc04d899c</t>
   </si>
   <si>
     <t>Debashis Mallick</t>
@@ -1387,7 +1387,7 @@
     <t>5e83febd-76d8-44dd-ac58-c70837c7f1c0</t>
   </si>
   <si>
-    <t>55912a91-332f-4d0f-a091-acb0c5f4bc52</t>
+    <t>2afa0b61-6d4d-4d85-886e-9de7c59f6dc4</t>
   </si>
   <si>
     <t>ARJUN MONDAL</t>
@@ -1402,7 +1402,7 @@
     <t>e3ae30e4-87f3-4201-98c3-29afe89ebb39</t>
   </si>
   <si>
-    <t>0b6ee51d-dffb-45fe-a35f-fcfae0d175e3</t>
+    <t>d5c86e07-be8a-40a2-9940-a470a522f42a</t>
   </si>
   <si>
     <t>VARUN KUMAR GUPTA</t>
@@ -1414,7 +1414,7 @@
     <t>42/1 H, PGH Shah Road, Kol-32</t>
   </si>
   <si>
-    <t>153cd054-43ae-4d4c-9485-c5a98875599f</t>
+    <t>c83cc183-14c7-44ea-85ea-fabe8d8b95a0</t>
   </si>
   <si>
     <t>INDRANEEL SIRCAR</t>
@@ -1429,7 +1429,7 @@
     <t>fcd4a515-d385-45d7-8373-cba1b621c102</t>
   </si>
   <si>
-    <t>58cef738-f6b2-442a-98e3-74031bb4268a</t>
+    <t>4112dc14-7a61-4116-8b24-d19d22110668</t>
   </si>
   <si>
     <t>PRANAB SIKDAR</t>
@@ -1444,7 +1444,7 @@
     <t>0012a4aa-efd8-4e4d-aa31-5732f55bfd2b</t>
   </si>
   <si>
-    <t>cbca6ca8-a92f-47e9-86f6-3a0f7ad744f6</t>
+    <t>ac9220d7-2488-4cbf-951d-f2d2a77a1239</t>
   </si>
   <si>
     <t>PRIYANJALI SIRCAR</t>
@@ -1459,7 +1459,7 @@
     <t>34d4f34f-be5d-4e67-865b-c9f0534a95d9</t>
   </si>
   <si>
-    <t>0b5988b9-eda7-4e1a-9493-f96d1256d3ff</t>
+    <t>68455330-f0b2-4474-bc23-cc5d800c648f</t>
   </si>
   <si>
     <t>JAYANTA KOLE</t>
@@ -1474,7 +1474,7 @@
     <t>b0cd5628-8c5a-4735-868d-b60b88663c23</t>
   </si>
   <si>
-    <t>4e094ad2-dc66-4c4b-be39-0b1db858a48b</t>
+    <t>7f98452f-a7cd-4670-bfbe-e19d5123f0d7</t>
   </si>
   <si>
     <t>SANDEEP KUMAR</t>
@@ -1486,7 +1486,7 @@
     <t>bb336e8c-1293-4c47-97a6-d55285d9b058</t>
   </si>
   <si>
-    <t>08650456-b9e6-424e-abaf-d59e199ad091</t>
+    <t>0edc772a-a0b6-4a6d-a198-38a8009d4f6e</t>
   </si>
   <si>
     <t>HRIDAY LAHA</t>
@@ -1498,7 +1498,7 @@
     <t>c43c1e33-1328-44f5-8044-70a987f0e2a0</t>
   </si>
   <si>
-    <t>3a3cf1b2-8b15-4ece-95d7-157fc108efc1</t>
+    <t>38031888-f909-4ce2-82f4-96031be33d85</t>
   </si>
   <si>
     <t>KRISHAN NANDAN THAKUR</t>
@@ -1510,7 +1510,7 @@
     <t>1c96c4b9-f5ef-461a-9795-ea75260422c8</t>
   </si>
   <si>
-    <t>2a9bf276-6517-42b8-b8d3-45ad88b61774</t>
+    <t>d518f0d7-b966-4993-979f-8ab9af8936e8</t>
   </si>
   <si>
     <t>RAHUL GOND</t>
@@ -1522,7 +1522,7 @@
     <t>af01f145-6858-4a12-931e-be2cfe48f44c</t>
   </si>
   <si>
-    <t>2bc431ab-3f1e-4575-a9cb-a70a7ea294eb</t>
+    <t>fec33df9-c7d3-46ae-a9c1-cbbc867d5132</t>
   </si>
   <si>
     <t>Dipankar De Sarkar</t>
@@ -1537,7 +1537,7 @@
     <t>bfe60cc8-afb0-47ba-bab0-912e4dac73f6</t>
   </si>
   <si>
-    <t>3861ebab-ac5c-41e3-ac48-873ed5a550fe</t>
+    <t>1cafd6b6-fd7b-4118-8b81-af7331571e85</t>
   </si>
   <si>
     <t>SURAJ DEV PRASAD</t>
@@ -1552,7 +1552,7 @@
     <t>61940e36-beb7-4b61-893c-7012ee98fd83</t>
   </si>
   <si>
-    <t>1248026b-4a0c-4583-9893-86d012b2e47e</t>
+    <t>898ccbd7-70e7-4dd6-95be-0d7ff6c846f4</t>
   </si>
   <si>
     <t>ARGHYA PAL</t>
@@ -1567,7 +1567,7 @@
     <t>f758fe0d-002b-4c92-a997-c516b3c79cfb</t>
   </si>
   <si>
-    <t>d186acc7-39ef-4ef5-895c-6b55a7e0749f</t>
+    <t>ff04c651-0364-4a45-8fb2-b38c38a99f4e</t>
   </si>
   <si>
     <t>SUBRATA BARAI</t>
@@ -1582,7 +1582,7 @@
     <t>0967524f-1fd0-4964-aca9-715dc32a575c</t>
   </si>
   <si>
-    <t>d34bb25b-3c06-454c-8e3f-3d714dc47f5a</t>
+    <t>7f16b39e-c921-4b51-adca-0562e9ee2c53</t>
   </si>
   <si>
     <t>Debasis Das</t>
@@ -1594,7 +1594,7 @@
     <t>764b4e06-2573-44f7-8e7a-5757e22e751d</t>
   </si>
   <si>
-    <t>4609d5e3-5adc-4789-9925-bcba56f8909f</t>
+    <t>2c2d5d15-2320-4a4b-b1e4-24aa6bb1dd61</t>
   </si>
   <si>
     <t>SIBADAS BAG</t>
@@ -1603,7 +1603,7 @@
     <t>C-506,LOHARUKA GREEN OASIS,KAIKHALI,KOL-700136</t>
   </si>
   <si>
-    <t>c645a82a-d7bd-4fd9-94a3-b90dc05c6af9</t>
+    <t>3f35ab7b-2981-4393-bf47-9880a28b4bcb</t>
   </si>
   <si>
     <t>RANAJIT SENSARMA</t>
@@ -1618,7 +1618,7 @@
     <t>98e2ca6c-9921-43b1-9138-85cf2d08ff1f</t>
   </si>
   <si>
-    <t>3bd655df-494a-4a40-a319-61c4c925bb42</t>
+    <t>98c0d741-88f6-4d68-b35d-2433217c1e28</t>
   </si>
   <si>
     <t>PARTHA SARATHI SARDAR</t>
@@ -1633,7 +1633,7 @@
     <t>aed3ef08-af30-4cc4-a8ce-65c7998de834</t>
   </si>
   <si>
-    <t>f59b20fe-b2bb-4210-83ec-72454b52d4aa</t>
+    <t>28139bc7-5faa-4c9f-b1f3-40121b2104bc</t>
   </si>
   <si>
     <t>DURGESH KUMAR SINGH</t>
@@ -1648,7 +1648,7 @@
     <t>7e3d288f-95b7-4d2b-b944-3bbe0bff722b</t>
   </si>
   <si>
-    <t>489119c3-1929-40d8-acff-5a8b7c3afafb</t>
+    <t>0c8c55e6-b544-49e7-8ec7-eab3b11bd3d9</t>
   </si>
   <si>
     <t>BIPIN CHANDRA GORAIN</t>
@@ -1663,7 +1663,7 @@
     <t>e2b625da-ea1e-4d40-ac23-878c21fecdf1</t>
   </si>
   <si>
-    <t>a50ad975-be9c-49ae-9981-d640ac6f86b1</t>
+    <t>34510b54-7771-4ac3-9579-ab2ee141ab80</t>
   </si>
   <si>
     <t>SOURAV ADHIKARY</t>
@@ -1678,7 +1678,7 @@
     <t>e6d48a57-a250-4cdf-b81b-4f2ae50c9256</t>
   </si>
   <si>
-    <t>8ef0cc2c-ba6c-4955-b9ee-66ddc5cb0a43</t>
+    <t>f89736e1-40a5-47b5-86bc-6d7d3c9e4025</t>
   </si>
   <si>
     <t>SUPRIYA KAR</t>
@@ -2237,7 +2237,7 @@
         <v>45879</v>
       </c>
       <c r="N2" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>45879</v>
       </c>
       <c r="N3" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>45879</v>
       </c>
       <c r="N4" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>45879</v>
       </c>
       <c r="N5" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2367,7 +2367,7 @@
         <v>45879</v>
       </c>
       <c r="N6" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>45879</v>
       </c>
       <c r="N7" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>45879</v>
       </c>
       <c r="N8" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>45879</v>
       </c>
       <c r="N9" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>45879</v>
       </c>
       <c r="N10" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>45879</v>
       </c>
       <c r="N11" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>45879</v>
       </c>
       <c r="N12" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>45879</v>
       </c>
       <c r="N13" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>45879</v>
       </c>
       <c r="N14" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2673,7 +2673,7 @@
         <v>45879</v>
       </c>
       <c r="N15" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
         <v>45879</v>
       </c>
       <c r="N16" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
         <v>45879</v>
       </c>
       <c r="N17" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>45879</v>
       </c>
       <c r="N18" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
         <v>45879</v>
       </c>
       <c r="N19" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>45879</v>
       </c>
       <c r="N20" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
         <v>45879</v>
       </c>
       <c r="N21" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2899,7 +2899,7 @@
         <v>45879</v>
       </c>
       <c r="N22" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>45879</v>
       </c>
       <c r="N23" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2963,7 +2963,7 @@
         <v>45879</v>
       </c>
       <c r="N24" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>45879</v>
       </c>
       <c r="N25" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
         <v>45879</v>
       </c>
       <c r="N26" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
         <v>45879</v>
       </c>
       <c r="N27" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3091,7 +3091,7 @@
         <v>45879</v>
       </c>
       <c r="N28" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>45879</v>
       </c>
       <c r="N29" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
         <v>45879</v>
       </c>
       <c r="N30" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>45879</v>
       </c>
       <c r="N31" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>45879</v>
       </c>
       <c r="N32" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>45879</v>
       </c>
       <c r="N33" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>45879</v>
       </c>
       <c r="N34" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>45879</v>
       </c>
       <c r="N35" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>45879</v>
       </c>
       <c r="N36" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>45879</v>
       </c>
       <c r="N37" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3421,7 +3421,7 @@
         <v>45879</v>
       </c>
       <c r="N38" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>45879</v>
       </c>
       <c r="N39" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>45879</v>
       </c>
       <c r="N40" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>45879</v>
       </c>
       <c r="N41" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3547,7 +3547,7 @@
         <v>45879</v>
       </c>
       <c r="N42" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3581,7 +3581,7 @@
         <v>45879</v>
       </c>
       <c r="N43" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>45879</v>
       </c>
       <c r="N44" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>45879</v>
       </c>
       <c r="N45" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3681,7 +3681,7 @@
         <v>45879</v>
       </c>
       <c r="N46" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v>45879</v>
       </c>
       <c r="N47" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>45879</v>
       </c>
       <c r="N48" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>45879</v>
       </c>
       <c r="N49" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>45879</v>
       </c>
       <c r="N50" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3843,7 +3843,7 @@
         <v>45879</v>
       </c>
       <c r="N51" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3877,7 +3877,7 @@
         <v>45879</v>
       </c>
       <c r="N52" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>45879</v>
       </c>
       <c r="N53" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>45879</v>
       </c>
       <c r="N54" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>45879</v>
       </c>
       <c r="N55" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
         <v>45879</v>
       </c>
       <c r="N56" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>45879</v>
       </c>
       <c r="N57" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4073,7 +4073,7 @@
         <v>45879</v>
       </c>
       <c r="N58" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>45879</v>
       </c>
       <c r="N59" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4135,7 +4135,7 @@
         <v>45879</v>
       </c>
       <c r="N60" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4169,7 +4169,7 @@
         <v>45879</v>
       </c>
       <c r="N61" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
         <v>45879</v>
       </c>
       <c r="N62" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4233,7 +4233,7 @@
         <v>45879</v>
       </c>
       <c r="N63" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>45879</v>
       </c>
       <c r="N64" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
         <v>45879</v>
       </c>
       <c r="N65" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4329,7 +4329,7 @@
         <v>45879</v>
       </c>
       <c r="N66" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
         <v>45879</v>
       </c>
       <c r="N67" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>45879</v>
       </c>
       <c r="N68" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>45879</v>
       </c>
       <c r="N69" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
         <v>45879</v>
       </c>
       <c r="N70" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
         <v>45879</v>
       </c>
       <c r="N71" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4521,7 +4521,7 @@
         <v>45879</v>
       </c>
       <c r="N72" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4553,7 +4553,7 @@
         <v>45879</v>
       </c>
       <c r="N73" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>45879</v>
       </c>
       <c r="N74" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>45879</v>
       </c>
       <c r="N75" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4653,7 +4653,7 @@
         <v>45879</v>
       </c>
       <c r="N76" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4689,7 +4689,7 @@
         <v>45879</v>
       </c>
       <c r="N77" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4723,7 +4723,7 @@
         <v>45879</v>
       </c>
       <c r="N78" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4753,7 +4753,7 @@
         <v>45879</v>
       </c>
       <c r="N79" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
         <v>45879</v>
       </c>
       <c r="N80" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
         <v>45879</v>
       </c>
       <c r="N81" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>45879</v>
       </c>
       <c r="N82" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4883,7 +4883,7 @@
         <v>45879</v>
       </c>
       <c r="N83" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
         <v>45879</v>
       </c>
       <c r="N84" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4947,7 +4947,7 @@
         <v>45879</v>
       </c>
       <c r="N85" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
         <v>45879</v>
       </c>
       <c r="N86" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
         <v>45879</v>
       </c>
       <c r="N87" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5049,7 +5049,7 @@
         <v>45879</v>
       </c>
       <c r="N88" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5083,7 +5083,7 @@
         <v>45879</v>
       </c>
       <c r="N89" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5115,7 +5115,7 @@
         <v>45879</v>
       </c>
       <c r="N90" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5147,7 +5147,7 @@
         <v>45879</v>
       </c>
       <c r="N91" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5179,7 +5179,7 @@
         <v>45879</v>
       </c>
       <c r="N92" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5211,7 +5211,7 @@
         <v>45879</v>
       </c>
       <c r="N93" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="94" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5243,7 +5243,7 @@
         <v>45879</v>
       </c>
       <c r="N94" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="95" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5275,7 +5275,7 @@
         <v>45879</v>
       </c>
       <c r="N95" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5305,7 +5305,7 @@
         <v>45879</v>
       </c>
       <c r="N96" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="97" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
         <v>45879</v>
       </c>
       <c r="N97" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="98" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5371,7 +5371,7 @@
         <v>45879</v>
       </c>
       <c r="N98" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="99" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5405,7 +5405,7 @@
         <v>45879</v>
       </c>
       <c r="N99" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="100" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5439,7 +5439,7 @@
         <v>45879</v>
       </c>
       <c r="N100" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="101" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5473,7 +5473,7 @@
         <v>45879</v>
       </c>
       <c r="N101" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="102" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
         <v>45879</v>
       </c>
       <c r="N102" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="103" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5541,7 +5541,7 @@
         <v>45879</v>
       </c>
       <c r="N103" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5575,7 +5575,7 @@
         <v>45879</v>
       </c>
       <c r="N104" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="105" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
         <v>45879</v>
       </c>
       <c r="N105" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5643,7 +5643,7 @@
         <v>45879</v>
       </c>
       <c r="N106" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="107" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5677,7 +5677,7 @@
         <v>45879</v>
       </c>
       <c r="N107" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5711,7 +5711,7 @@
         <v>45879</v>
       </c>
       <c r="N108" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="109" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5745,7 +5745,7 @@
         <v>45879</v>
       </c>
       <c r="N109" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="110" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5779,7 +5779,7 @@
         <v>45879</v>
       </c>
       <c r="N110" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="111" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
         <v>45879</v>
       </c>
       <c r="N111" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="112" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5879,7 +5879,7 @@
         <v>45879</v>
       </c>
       <c r="N113" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="114" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5911,7 +5911,7 @@
         <v>45879</v>
       </c>
       <c r="N114" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="115" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5943,7 +5943,7 @@
         <v>45879</v>
       </c>
       <c r="N115" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="116" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5975,7 +5975,7 @@
         <v>45879</v>
       </c>
       <c r="N116" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="117" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6009,7 +6009,7 @@
         <v>45879</v>
       </c>
       <c r="N117" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="118" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
         <v>45879</v>
       </c>
       <c r="N118" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="119" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6077,7 +6077,7 @@
         <v>45879</v>
       </c>
       <c r="N119" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6111,7 +6111,7 @@
         <v>45879</v>
       </c>
       <c r="N120" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="121" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
         <v>45974</v>
       </c>
       <c r="N121" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="122" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6179,7 +6179,7 @@
         <v>45879</v>
       </c>
       <c r="N122" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="123" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6213,7 +6213,7 @@
         <v>45879</v>
       </c>
       <c r="N123" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="124" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6247,7 +6247,7 @@
         <v>45879</v>
       </c>
       <c r="N124" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="125" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6281,7 +6281,7 @@
         <v>45879</v>
       </c>
       <c r="N125" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="126" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6315,7 +6315,7 @@
         <v>45879</v>
       </c>
       <c r="N126" s="4">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="127" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6349,7 +6349,7 @@
         <v>45879</v>
       </c>
       <c r="N127" s="8">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6383,7 +6383,7 @@
         <v>45879</v>
       </c>
       <c r="N128" s="12">
-        <v>45995.45443760417</v>
+        <v>45995</v>
       </c>
     </row>
   </sheetData>
